--- a/Data/branch_wise_stock_status.xlsx
+++ b/Data/branch_wise_stock_status.xlsx
@@ -505,19 +505,19 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E2">
         <v>10</v>
       </c>
       <c r="F2">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H2">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -531,19 +531,19 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H3">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -557,19 +557,19 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E4">
         <v>21</v>
       </c>
       <c r="F4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G4">
         <v>12</v>
       </c>
       <c r="H4">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -583,10 +583,10 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F5">
         <v>3</v>
@@ -609,19 +609,19 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G6">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H6">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -638,16 +638,16 @@
         <v>30</v>
       </c>
       <c r="E7">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H7">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -661,19 +661,19 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E8">
         <v>15</v>
       </c>
       <c r="F8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G8">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H8">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -687,10 +687,10 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F9">
         <v>5</v>
@@ -699,7 +699,7 @@
         <v>11</v>
       </c>
       <c r="H9">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -713,19 +713,19 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E10">
         <v>10</v>
       </c>
       <c r="F10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G10">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H10">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -739,19 +739,19 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E11">
         <v>14</v>
       </c>
       <c r="F11">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H11">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -765,19 +765,19 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E12">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H12">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -791,19 +791,19 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E13">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G13">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H13">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -817,16 +817,16 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E14">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G14">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H14">
         <v>43</v>
@@ -843,19 +843,19 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E15">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G15">
         <v>10</v>
       </c>
       <c r="H15">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -869,19 +869,19 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E16">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F16">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G16">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H16">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -895,19 +895,19 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E17">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F17">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G17">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H17">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -924,16 +924,16 @@
         <v>31</v>
       </c>
       <c r="E18">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F18">
         <v>2</v>
       </c>
       <c r="G18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H18">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -947,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E19">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F19">
         <v>3</v>
       </c>
       <c r="G19">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H19">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -973,19 +973,19 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E20">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F20">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G20">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H20">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1002,16 +1002,16 @@
         <v>35</v>
       </c>
       <c r="E21">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F21">
         <v>3</v>
       </c>
       <c r="G21">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H21">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1025,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="D22">
+        <v>35</v>
+      </c>
+      <c r="E22">
+        <v>19</v>
+      </c>
+      <c r="F22">
+        <v>6</v>
+      </c>
+      <c r="G22">
+        <v>10</v>
+      </c>
+      <c r="H22">
         <v>36</v>
-      </c>
-      <c r="E22">
-        <v>20</v>
-      </c>
-      <c r="F22">
-        <v>5</v>
-      </c>
-      <c r="G22">
-        <v>11</v>
-      </c>
-      <c r="H22">
-        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1054,13 +1054,13 @@
         <v>41</v>
       </c>
       <c r="E23">
+        <v>15</v>
+      </c>
+      <c r="F23">
         <v>12</v>
       </c>
-      <c r="F23">
-        <v>13</v>
-      </c>
       <c r="G23">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H23">
         <v>28</v>
@@ -1077,13 +1077,13 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E24">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F24">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G24">
         <v>6</v>
@@ -1109,13 +1109,13 @@
         <v>5</v>
       </c>
       <c r="F25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G25">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H25">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1138,10 +1138,10 @@
         <v>12</v>
       </c>
       <c r="G26">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H26">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1155,10 +1155,10 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E27">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F27">
         <v>8</v>
@@ -1167,7 +1167,7 @@
         <v>8</v>
       </c>
       <c r="H27">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1181,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E28">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F28">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G28">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H28">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1207,19 +1207,19 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E29">
+        <v>7</v>
+      </c>
+      <c r="F29">
+        <v>6</v>
+      </c>
+      <c r="G29">
         <v>11</v>
       </c>
-      <c r="F29">
-        <v>7</v>
-      </c>
-      <c r="G29">
-        <v>9</v>
-      </c>
       <c r="H29">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1233,19 +1233,19 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E30">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F30">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G30">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H30">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1259,19 +1259,19 @@
         <v>0</v>
       </c>
       <c r="D31">
+        <v>32</v>
+      </c>
+      <c r="E31">
+        <v>24</v>
+      </c>
+      <c r="F31">
+        <v>5</v>
+      </c>
+      <c r="G31">
+        <v>12</v>
+      </c>
+      <c r="H31">
         <v>33</v>
-      </c>
-      <c r="E31">
-        <v>23</v>
-      </c>
-      <c r="F31">
-        <v>6</v>
-      </c>
-      <c r="G31">
-        <v>13</v>
-      </c>
-      <c r="H31">
-        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1285,7 +1285,7 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E32">
         <v>15</v>
@@ -1294,7 +1294,7 @@
         <v>3</v>
       </c>
       <c r="G32">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H32">
         <v>45</v>

--- a/Data/branch_wise_stock_status.xlsx
+++ b/Data/branch_wise_stock_status.xlsx
@@ -505,19 +505,19 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2">
         <v>9</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H2">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -537,10 +537,10 @@
         <v>16</v>
       </c>
       <c r="F3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H3">
         <v>36</v>
@@ -557,19 +557,19 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4">
         <v>6</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H4">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -586,16 +586,16 @@
         <v>34</v>
       </c>
       <c r="E5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G5">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H5">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -609,19 +609,19 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E6">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H6">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -638,16 +638,16 @@
         <v>30</v>
       </c>
       <c r="E7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H7">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -661,19 +661,19 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E8">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8">
         <v>6</v>
       </c>
       <c r="G8">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H8">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -713,16 +713,16 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E10">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G10">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H10">
         <v>36</v>
@@ -739,19 +739,19 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E11">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G11">
         <v>8</v>
       </c>
       <c r="H11">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -765,19 +765,19 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E12">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F12">
         <v>9</v>
       </c>
       <c r="G12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H12">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -791,19 +791,19 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E13">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G13">
         <v>13</v>
       </c>
       <c r="H13">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -823,13 +823,13 @@
         <v>12</v>
       </c>
       <c r="F14">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G14">
         <v>10</v>
       </c>
       <c r="H14">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -849,10 +849,10 @@
         <v>8</v>
       </c>
       <c r="F15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G15">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H15">
         <v>52</v>
@@ -904,10 +904,10 @@
         <v>9</v>
       </c>
       <c r="G17">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H17">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -921,19 +921,19 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E18">
         <v>7</v>
       </c>
       <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
         <v>2</v>
       </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
       <c r="H18">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E19">
         <v>9</v>
@@ -956,10 +956,10 @@
         <v>3</v>
       </c>
       <c r="G19">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H19">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -976,7 +976,7 @@
         <v>35</v>
       </c>
       <c r="E20">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20">
         <v>11</v>
@@ -985,7 +985,7 @@
         <v>16</v>
       </c>
       <c r="H20">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -999,16 +999,16 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E21">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F21">
         <v>3</v>
       </c>
       <c r="G21">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H21">
         <v>46</v>
@@ -1054,16 +1054,16 @@
         <v>41</v>
       </c>
       <c r="E23">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F23">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G23">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H23">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1077,16 +1077,16 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E24">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F24">
         <v>8</v>
       </c>
       <c r="G24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H24">
         <v>37</v>
@@ -1106,7 +1106,7 @@
         <v>30</v>
       </c>
       <c r="E25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F25">
         <v>4</v>
@@ -1115,7 +1115,7 @@
         <v>11</v>
       </c>
       <c r="H25">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E26">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F26">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G26">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H26">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1155,16 +1155,16 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E27">
         <v>13</v>
       </c>
       <c r="F27">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H27">
         <v>48</v>
@@ -1181,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E28">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F28">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G28">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H28">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1210,7 +1210,7 @@
         <v>33</v>
       </c>
       <c r="E29">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F29">
         <v>6</v>
@@ -1219,7 +1219,7 @@
         <v>11</v>
       </c>
       <c r="H29">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1236,10 +1236,10 @@
         <v>36</v>
       </c>
       <c r="E30">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F30">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G30">
         <v>13</v>
@@ -1259,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E31">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F31">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G31">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H31">
         <v>33</v>
@@ -1291,13 +1291,13 @@
         <v>15</v>
       </c>
       <c r="F32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G32">
         <v>10</v>
       </c>
       <c r="H32">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Data/branch_wise_stock_status.xlsx
+++ b/Data/branch_wise_stock_status.xlsx
@@ -505,19 +505,19 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H2">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -537,13 +537,13 @@
         <v>16</v>
       </c>
       <c r="F3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H3">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -557,19 +557,19 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E4">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H4">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -583,19 +583,19 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E5">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -609,19 +609,19 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E6">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="G6">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H6">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -635,19 +635,19 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E7">
+        <v>15</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
         <v>10</v>
       </c>
-      <c r="F7">
-        <v>8</v>
-      </c>
-      <c r="G7">
-        <v>13</v>
-      </c>
       <c r="H7">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -661,19 +661,19 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E8">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F8">
+        <v>11</v>
+      </c>
+      <c r="G8">
         <v>6</v>
       </c>
-      <c r="G8">
-        <v>15</v>
-      </c>
       <c r="H8">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -687,7 +687,7 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E9">
         <v>7</v>
@@ -696,10 +696,10 @@
         <v>5</v>
       </c>
       <c r="G9">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H9">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -713,19 +713,19 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E10">
+        <v>16</v>
+      </c>
+      <c r="F10">
         <v>6</v>
-      </c>
-      <c r="F10">
-        <v>9</v>
       </c>
       <c r="G10">
         <v>14</v>
       </c>
       <c r="H10">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -739,19 +739,19 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E11">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F11">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G11">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H11">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -765,19 +765,19 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E12">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G12">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H12">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -791,19 +791,19 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E13">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G13">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H13">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -820,16 +820,16 @@
         <v>35</v>
       </c>
       <c r="E14">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F14">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G14">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H14">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -843,13 +843,13 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E15">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F15">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G15">
         <v>9</v>
@@ -869,19 +869,19 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E16">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F16">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G16">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H16">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -895,16 +895,16 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E17">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="G17">
         <v>9</v>
-      </c>
-      <c r="G17">
-        <v>8</v>
       </c>
       <c r="H17">
         <v>31</v>
@@ -921,19 +921,19 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E18">
         <v>7</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G18">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H18">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -947,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E19">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G19">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H19">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -976,16 +976,16 @@
         <v>35</v>
       </c>
       <c r="E20">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F20">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G20">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H20">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -999,19 +999,19 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E21">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G21">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H21">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1025,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E22">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F22">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H22">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1051,19 +1051,19 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E23">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F23">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G23">
         <v>11</v>
       </c>
       <c r="H23">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1077,16 +1077,16 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="E24">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F24">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G24">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H24">
         <v>37</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>4</v>
       </c>
       <c r="G25">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H25">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1129,16 +1129,16 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E26">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F26">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G26">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H26">
         <v>43</v>
@@ -1155,19 +1155,19 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E27">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F27">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G27">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H27">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1181,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E28">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F28">
         <v>5</v>
       </c>
       <c r="G28">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H28">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1207,19 +1207,19 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E29">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F29">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G29">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H29">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1233,19 +1233,19 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E30">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F30">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G30">
         <v>13</v>
       </c>
       <c r="H30">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1259,19 +1259,19 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E31">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F31">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G31">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H31">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1285,16 +1285,16 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E32">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F32">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G32">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H32">
         <v>44</v>

--- a/Data/branch_wise_stock_status.xlsx
+++ b/Data/branch_wise_stock_status.xlsx
@@ -16,6 +16,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
+    <t>Branch Total</t>
+  </si>
+  <si>
     <t>BOG</t>
   </si>
   <si>
@@ -104,9 +107,6 @@
   </si>
   <si>
     <t>TGL</t>
-  </si>
-  <si>
-    <t>VRB</t>
   </si>
   <si>
     <t>Branch</t>
@@ -505,19 +505,19 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E2">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>39</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -531,19 +531,19 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E3">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G3">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H3">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -557,19 +557,19 @@
         <v>0</v>
       </c>
       <c r="D4">
+        <v>37</v>
+      </c>
+      <c r="E4">
+        <v>14</v>
+      </c>
+      <c r="F4">
+        <v>8</v>
+      </c>
+      <c r="G4">
+        <v>9</v>
+      </c>
+      <c r="H4">
         <v>38</v>
-      </c>
-      <c r="E4">
-        <v>15</v>
-      </c>
-      <c r="F4">
-        <v>7</v>
-      </c>
-      <c r="G4">
-        <v>11</v>
-      </c>
-      <c r="H4">
-        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -583,19 +583,19 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E5">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G5">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H5">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -609,13 +609,13 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F6">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G6">
         <v>15</v>
@@ -635,19 +635,19 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E7">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H7">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -661,19 +661,19 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E8">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F8">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G8">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H8">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -687,19 +687,19 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E9">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G9">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H9">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -713,19 +713,19 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E10">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G10">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H10">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -739,19 +739,19 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E11">
+        <v>17</v>
+      </c>
+      <c r="F11">
         <v>6</v>
       </c>
-      <c r="F11">
-        <v>7</v>
-      </c>
       <c r="G11">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H11">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -765,19 +765,19 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F12">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G12">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H12">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -791,19 +791,19 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E13">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G13">
         <v>11</v>
       </c>
       <c r="H13">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -817,19 +817,19 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E14">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F14">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G14">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H14">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -843,19 +843,19 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E15">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G15">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H15">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -869,19 +869,19 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E16">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F16">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G16">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H16">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -895,19 +895,19 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E17">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F17">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G17">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H17">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -921,19 +921,19 @@
         <v>0</v>
       </c>
       <c r="D18">
+        <v>42</v>
+      </c>
+      <c r="E18">
+        <v>20</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+      <c r="G18">
+        <v>9</v>
+      </c>
+      <c r="H18">
         <v>31</v>
-      </c>
-      <c r="E18">
-        <v>7</v>
-      </c>
-      <c r="F18">
-        <v>3</v>
-      </c>
-      <c r="G18">
-        <v>8</v>
-      </c>
-      <c r="H18">
-        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -947,16 +947,16 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E19">
+        <v>6</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19">
         <v>8</v>
-      </c>
-      <c r="F19">
-        <v>2</v>
-      </c>
-      <c r="G19">
-        <v>5</v>
       </c>
       <c r="H19">
         <v>57</v>
@@ -976,16 +976,16 @@
         <v>35</v>
       </c>
       <c r="E20">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F20">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G20">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="H20">
-        <v>31</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1002,16 +1002,16 @@
         <v>35</v>
       </c>
       <c r="E21">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F21">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G21">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="H21">
-        <v>52</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1025,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E22">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F22">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="G22">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H22">
-        <v>34</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1051,19 +1051,19 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E23">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F23">
+        <v>12</v>
+      </c>
+      <c r="G23">
         <v>8</v>
       </c>
-      <c r="G23">
-        <v>11</v>
-      </c>
       <c r="H23">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1077,19 +1077,19 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E24">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F24">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G24">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H24">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F25">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G25">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H25">
-        <v>62</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E26">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F26">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G26">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H26">
-        <v>43</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1155,19 +1155,19 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E27">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F27">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G27">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H27">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1181,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E28">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F28">
         <v>5</v>
       </c>
       <c r="G28">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H28">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1207,19 +1207,19 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E29">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G29">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H29">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1233,19 +1233,19 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E30">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F30">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G30">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H30">
-        <v>28</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1262,16 +1262,16 @@
         <v>38</v>
       </c>
       <c r="E31">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F31">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G31">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H31">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1288,16 +1288,16 @@
         <v>38</v>
       </c>
       <c r="E32">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F32">
         <v>7</v>
       </c>
       <c r="G32">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H32">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Data/branch_wise_stock_status.xlsx
+++ b/Data/branch_wise_stock_status.xlsx
@@ -505,13 +505,13 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -531,19 +531,19 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E3">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H3">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -557,7 +557,7 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>14</v>
@@ -566,7 +566,7 @@
         <v>8</v>
       </c>
       <c r="G4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H4">
         <v>38</v>
@@ -583,10 +583,10 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E5">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5">
         <v>8</v>
@@ -609,16 +609,16 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E6">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G6">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H6">
         <v>37</v>
@@ -644,10 +644,10 @@
         <v>12</v>
       </c>
       <c r="G7">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H7">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -661,19 +661,19 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E8">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H8">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -693,10 +693,10 @@
         <v>9</v>
       </c>
       <c r="F9">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H9">
         <v>42</v>
@@ -716,10 +716,10 @@
         <v>33</v>
       </c>
       <c r="E10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G10">
         <v>12</v>
@@ -739,16 +739,16 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E11">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G11">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H11">
         <v>35</v>
@@ -765,10 +765,10 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F12">
         <v>6</v>
@@ -794,16 +794,16 @@
         <v>36</v>
       </c>
       <c r="E13">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H13">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -820,16 +820,16 @@
         <v>36</v>
       </c>
       <c r="E14">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G14">
         <v>12</v>
       </c>
       <c r="H14">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -852,10 +852,10 @@
         <v>9</v>
       </c>
       <c r="G15">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H15">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -869,19 +869,19 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E16">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H16">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -898,13 +898,13 @@
         <v>36</v>
       </c>
       <c r="E17">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F17">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G17">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H17">
         <v>39</v>
@@ -921,10 +921,10 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E18">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F18">
         <v>4</v>
@@ -933,7 +933,7 @@
         <v>9</v>
       </c>
       <c r="H18">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -947,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G19">
         <v>8</v>
       </c>
       <c r="H19">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -976,16 +976,16 @@
         <v>35</v>
       </c>
       <c r="E20">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G20">
         <v>6</v>
       </c>
       <c r="H20">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -999,19 +999,19 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E21">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F21">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G21">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H21">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1025,13 +1025,13 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E22">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G22">
         <v>3</v>
@@ -1077,19 +1077,19 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E24">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F24">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G24">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H24">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1106,16 +1106,16 @@
         <v>40</v>
       </c>
       <c r="E25">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G25">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H25">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1161,13 +1161,13 @@
         <v>15</v>
       </c>
       <c r="F27">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G27">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H27">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E28">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F28">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G28">
         <v>8</v>
@@ -1207,19 +1207,19 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E29">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F29">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G29">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H29">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1239,13 +1239,13 @@
         <v>8</v>
       </c>
       <c r="F30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G30">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H30">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1262,10 +1262,10 @@
         <v>38</v>
       </c>
       <c r="E31">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F31">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G31">
         <v>11</v>
@@ -1288,10 +1288,10 @@
         <v>38</v>
       </c>
       <c r="E32">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F32">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G32">
         <v>10</v>

--- a/Data/branch_wise_stock_status.xlsx
+++ b/Data/branch_wise_stock_status.xlsx
@@ -499,13 +499,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -525,25 +525,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -551,7 +551,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -560,10 +560,10 @@
         <v>38</v>
       </c>
       <c r="E4">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F4">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G4">
         <v>8</v>
@@ -577,7 +577,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -586,16 +586,16 @@
         <v>41</v>
       </c>
       <c r="E5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G5">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H5">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -603,25 +603,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G6">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H6">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -629,25 +629,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F7">
         <v>12</v>
       </c>
       <c r="G7">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H7">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -655,22 +655,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E8">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G8">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H8">
         <v>44</v>
@@ -681,7 +681,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -690,16 +690,16 @@
         <v>38</v>
       </c>
       <c r="E9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G9">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H9">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -707,22 +707,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F10">
         <v>4</v>
       </c>
       <c r="G10">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H10">
         <v>50</v>
@@ -733,7 +733,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -745,13 +745,13 @@
         <v>16</v>
       </c>
       <c r="F11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G11">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H11">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -759,22 +759,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E12">
+        <v>9</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="G12">
         <v>7</v>
-      </c>
-      <c r="F12">
-        <v>6</v>
-      </c>
-      <c r="G12">
-        <v>8</v>
       </c>
       <c r="H12">
         <v>47</v>
@@ -785,25 +785,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E13">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F13">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G13">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H13">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -811,25 +811,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E14">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G14">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H14">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -837,16 +837,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E15">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F15">
         <v>9</v>
@@ -863,22 +863,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E16">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F16">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H16">
         <v>52</v>
@@ -889,25 +889,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E17">
         <v>13</v>
       </c>
       <c r="F17">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G17">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H17">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -915,13 +915,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E18">
         <v>19</v>
@@ -930,10 +930,10 @@
         <v>4</v>
       </c>
       <c r="G18">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H18">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -941,22 +941,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E19">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G19">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H19">
         <v>55</v>
@@ -967,25 +967,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E20">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F20">
         <v>3</v>
       </c>
       <c r="G20">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H20">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -993,19 +993,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E21">
         <v>15</v>
       </c>
       <c r="F21">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G21">
         <v>15</v>
@@ -1019,25 +1019,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E22">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22">
         <v>5</v>
       </c>
       <c r="G22">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H22">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1045,19 +1045,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E23">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F23">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G23">
         <v>8</v>
@@ -1071,25 +1071,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E24">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F24">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G24">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H24">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1097,7 +1097,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>40</v>
       </c>
       <c r="E25">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F25">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G25">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H25">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1123,25 +1123,25 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E26">
         <v>4</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H26">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1149,25 +1149,25 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E27">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F27">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H27">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1175,19 +1175,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="D28">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E28">
         <v>14</v>
       </c>
       <c r="F28">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G28">
         <v>8</v>
@@ -1201,22 +1201,22 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E29">
+        <v>9</v>
+      </c>
+      <c r="F29">
+        <v>8</v>
+      </c>
+      <c r="G29">
         <v>11</v>
-      </c>
-      <c r="F29">
-        <v>6</v>
-      </c>
-      <c r="G29">
-        <v>9</v>
       </c>
       <c r="H29">
         <v>43</v>
@@ -1227,25 +1227,25 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
       <c r="D30">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E30">
         <v>8</v>
       </c>
       <c r="F30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G30">
         <v>13</v>
       </c>
       <c r="H30">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1253,22 +1253,22 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E31">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F31">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G31">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H31">
         <v>28</v>
@@ -1279,7 +1279,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>16</v>
       </c>
       <c r="F32">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G32">
         <v>10</v>
       </c>
       <c r="H32">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Data/branch_wise_stock_status.xlsx
+++ b/Data/branch_wise_stock_status.xlsx
@@ -505,7 +505,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -517,7 +517,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -531,19 +531,19 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3">
         <v>10</v>
       </c>
       <c r="G3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H3">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -557,19 +557,19 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4">
         <v>18</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H4">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -583,19 +583,19 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H5">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -609,19 +609,19 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E6">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6">
         <v>9</v>
       </c>
-      <c r="G6">
-        <v>11</v>
-      </c>
       <c r="H6">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -635,19 +635,19 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E7">
         <v>9</v>
       </c>
       <c r="F7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G7">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H7">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -661,19 +661,19 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E8">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G8">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H8">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -687,13 +687,13 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E9">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G9">
         <v>10</v>
@@ -713,19 +713,19 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H10">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -739,19 +739,19 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E11">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F11">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G11">
         <v>10</v>
       </c>
       <c r="H11">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -765,19 +765,19 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
         <v>9</v>
-      </c>
-      <c r="F12">
-        <v>5</v>
       </c>
       <c r="G12">
         <v>7</v>
       </c>
       <c r="H12">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -791,19 +791,19 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E13">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F13">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G13">
         <v>9</v>
       </c>
       <c r="H13">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -817,19 +817,19 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E14">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F14">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H14">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -843,19 +843,19 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E15">
+        <v>7</v>
+      </c>
+      <c r="F15">
+        <v>10</v>
+      </c>
+      <c r="G15">
         <v>11</v>
       </c>
-      <c r="F15">
-        <v>9</v>
-      </c>
-      <c r="G15">
-        <v>8</v>
-      </c>
       <c r="H15">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -869,19 +869,19 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E16">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F16">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G16">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H16">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -895,19 +895,19 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E17">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F17">
         <v>8</v>
       </c>
       <c r="G17">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H17">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -921,19 +921,19 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E18">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F18">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G18">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H18">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -947,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E19">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F19">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G19">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H19">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -973,19 +973,19 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E20">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F20">
+        <v>5</v>
+      </c>
+      <c r="G20">
         <v>3</v>
       </c>
-      <c r="G20">
-        <v>4</v>
-      </c>
       <c r="H20">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -999,19 +999,19 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E21">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F21">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G21">
         <v>15</v>
       </c>
       <c r="H21">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1025,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E22">
         <v>11</v>
       </c>
       <c r="F22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G22">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H22">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1051,19 +1051,19 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E23">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F23">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G23">
         <v>8</v>
       </c>
       <c r="H23">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1077,19 +1077,19 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E24">
         <v>17</v>
       </c>
       <c r="F24">
+        <v>11</v>
+      </c>
+      <c r="G24">
         <v>8</v>
       </c>
-      <c r="G24">
-        <v>13</v>
-      </c>
       <c r="H24">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E25">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F25">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G25">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H25">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E26">
         <v>4</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G26">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H26">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1155,19 +1155,19 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E27">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F27">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G27">
         <v>7</v>
       </c>
       <c r="H27">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1184,16 +1184,16 @@
         <v>32</v>
       </c>
       <c r="E28">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F28">
+        <v>8</v>
+      </c>
+      <c r="G28">
         <v>6</v>
       </c>
-      <c r="G28">
-        <v>8</v>
-      </c>
       <c r="H28">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1210,16 +1210,16 @@
         <v>36</v>
       </c>
       <c r="E29">
+        <v>8</v>
+      </c>
+      <c r="F29">
+        <v>10</v>
+      </c>
+      <c r="G29">
         <v>9</v>
       </c>
-      <c r="F29">
-        <v>8</v>
-      </c>
-      <c r="G29">
-        <v>11</v>
-      </c>
       <c r="H29">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1233,19 +1233,19 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E30">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G30">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H30">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1259,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E31">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F31">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G31">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H31">
         <v>28</v>
@@ -1285,19 +1285,19 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E32">
         <v>16</v>
       </c>
       <c r="F32">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G32">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H32">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Data/branch_wise_stock_status.xlsx
+++ b/Data/branch_wise_stock_status.xlsx
@@ -531,19 +531,19 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3">
         <v>12</v>
       </c>
       <c r="F3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H3">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -557,19 +557,19 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E4">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H4">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -612,16 +612,16 @@
         <v>37</v>
       </c>
       <c r="E6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F6">
         <v>10</v>
       </c>
       <c r="G6">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H6">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -638,16 +638,16 @@
         <v>32</v>
       </c>
       <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
         <v>9</v>
       </c>
-      <c r="F7">
-        <v>11</v>
-      </c>
       <c r="G7">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H7">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -693,10 +693,10 @@
         <v>13</v>
       </c>
       <c r="F9">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G9">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H9">
         <v>39</v>
@@ -713,19 +713,19 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F10">
         <v>5</v>
       </c>
       <c r="G10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H10">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -739,19 +739,19 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E11">
         <v>17</v>
       </c>
       <c r="F11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G11">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H11">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -768,13 +768,13 @@
         <v>33</v>
       </c>
       <c r="E12">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G12">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H12">
         <v>48</v>
@@ -791,16 +791,16 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E13">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H13">
         <v>40</v>
@@ -820,7 +820,7 @@
         <v>37</v>
       </c>
       <c r="E14">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F14">
         <v>8</v>
@@ -829,7 +829,7 @@
         <v>13</v>
       </c>
       <c r="H14">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -846,7 +846,7 @@
         <v>36</v>
       </c>
       <c r="E15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F15">
         <v>10</v>
@@ -855,7 +855,7 @@
         <v>11</v>
       </c>
       <c r="H15">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -895,16 +895,16 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E17">
+        <v>13</v>
+      </c>
+      <c r="F17">
+        <v>7</v>
+      </c>
+      <c r="G17">
         <v>14</v>
-      </c>
-      <c r="F17">
-        <v>8</v>
-      </c>
-      <c r="G17">
-        <v>13</v>
       </c>
       <c r="H17">
         <v>38</v>
@@ -973,19 +973,19 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E20">
         <v>9</v>
       </c>
       <c r="F20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H20">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1002,13 +1002,13 @@
         <v>37</v>
       </c>
       <c r="E21">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F21">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G21">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H21">
         <v>31</v>
@@ -1025,16 +1025,16 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E22">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F22">
         <v>4</v>
       </c>
       <c r="G22">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H22">
         <v>52</v>
@@ -1057,13 +1057,13 @@
         <v>21</v>
       </c>
       <c r="F23">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G23">
         <v>8</v>
       </c>
       <c r="H23">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E24">
         <v>17</v>
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="G24">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H24">
         <v>28</v>
@@ -1112,10 +1112,10 @@
         <v>6</v>
       </c>
       <c r="G25">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H25">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1129,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E26">
         <v>4</v>
@@ -1141,7 +1141,7 @@
         <v>9</v>
       </c>
       <c r="H26">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1161,10 +1161,10 @@
         <v>13</v>
       </c>
       <c r="F27">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G27">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H27">
         <v>45</v>
@@ -1210,16 +1210,16 @@
         <v>36</v>
       </c>
       <c r="E29">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F29">
         <v>10</v>
       </c>
       <c r="G29">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H29">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1239,10 +1239,10 @@
         <v>6</v>
       </c>
       <c r="F30">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G30">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H30">
         <v>49</v>
@@ -1265,10 +1265,10 @@
         <v>24</v>
       </c>
       <c r="F31">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G31">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H31">
         <v>28</v>
@@ -1285,10 +1285,10 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E32">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F32">
         <v>10</v>

--- a/Data/branch_wise_stock_status.xlsx
+++ b/Data/branch_wise_stock_status.xlsx
@@ -502,7 +502,7 @@
         <v>107</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D2">
         <v>31</v>
@@ -511,13 +511,13 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -531,19 +531,19 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E3">
         <v>11</v>
       </c>
       <c r="F3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G3">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H3">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -557,19 +557,19 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H4">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -583,19 +583,19 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E5">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H5">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -609,19 +609,19 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E6">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G6">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H6">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -635,19 +635,19 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E7">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F7">
+        <v>7</v>
+      </c>
+      <c r="G7">
         <v>12</v>
       </c>
-      <c r="G7">
-        <v>16</v>
-      </c>
       <c r="H7">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -661,19 +661,19 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E8">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G8">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H8">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -687,19 +687,19 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E9">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G9">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H9">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -713,19 +713,19 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H10">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -739,19 +739,19 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E11">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G11">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H11">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -765,19 +765,19 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E12">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H12">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -794,16 +794,16 @@
         <v>37</v>
       </c>
       <c r="E13">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F13">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G13">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H13">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -817,19 +817,19 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E14">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F14">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G14">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H14">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -843,19 +843,19 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E15">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F15">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G15">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H15">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -869,19 +869,19 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E16">
         <v>9</v>
       </c>
       <c r="F16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H16">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -895,10 +895,10 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E17">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F17">
         <v>8</v>
@@ -907,7 +907,7 @@
         <v>8</v>
       </c>
       <c r="H17">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -921,19 +921,19 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E18">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F18">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G18">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H18">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -947,10 +947,10 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E19">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F19">
         <v>4</v>
@@ -959,7 +959,7 @@
         <v>7</v>
       </c>
       <c r="H19">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -973,19 +973,19 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E20">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F20">
         <v>3</v>
       </c>
       <c r="G20">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H20">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -999,16 +999,16 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E21">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F21">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G21">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H21">
         <v>29</v>
@@ -1025,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E22">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F22">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H22">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1051,19 +1051,19 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E23">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F23">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G23">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H23">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1077,19 +1077,19 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E24">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F24">
+        <v>10</v>
+      </c>
+      <c r="G24">
         <v>8</v>
       </c>
-      <c r="G24">
-        <v>13</v>
-      </c>
       <c r="H24">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E25">
         <v>14</v>
       </c>
       <c r="F25">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G25">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H25">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1129,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E26">
         <v>4</v>
@@ -1138,10 +1138,10 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H26">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1155,19 +1155,19 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E27">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F27">
         <v>7</v>
       </c>
       <c r="G27">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H27">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1181,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E28">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F28">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G28">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H28">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1236,16 +1236,16 @@
         <v>35</v>
       </c>
       <c r="E30">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G30">
         <v>13</v>
       </c>
       <c r="H30">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1259,19 +1259,19 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E31">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F31">
+        <v>9</v>
+      </c>
+      <c r="G31">
         <v>14</v>
       </c>
-      <c r="G31">
-        <v>8</v>
-      </c>
       <c r="H31">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1285,19 +1285,19 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E32">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F32">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G32">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H32">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Data/branch_wise_stock_status.xlsx
+++ b/Data/branch_wise_stock_status.xlsx
@@ -505,10 +505,10 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -517,7 +517,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -534,16 +534,16 @@
         <v>34</v>
       </c>
       <c r="E3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H3">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -557,19 +557,19 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H4">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -583,13 +583,13 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E5">
         <v>16</v>
       </c>
       <c r="F5">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G5">
         <v>10</v>
@@ -609,16 +609,16 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E6">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G6">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H6">
         <v>38</v>
@@ -635,19 +635,19 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E7">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G7">
         <v>12</v>
       </c>
       <c r="H7">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -661,19 +661,19 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E8">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G8">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H8">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -687,19 +687,19 @@
         <v>0</v>
       </c>
       <c r="D9">
+        <v>35</v>
+      </c>
+      <c r="E9">
+        <v>13</v>
+      </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
+      <c r="G9">
+        <v>12</v>
+      </c>
+      <c r="H9">
         <v>40</v>
-      </c>
-      <c r="E9">
-        <v>15</v>
-      </c>
-      <c r="F9">
-        <v>11</v>
-      </c>
-      <c r="G9">
-        <v>6</v>
-      </c>
-      <c r="H9">
-        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -713,19 +713,19 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E10">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G10">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H10">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -739,19 +739,19 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E11">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F11">
+        <v>6</v>
+      </c>
+      <c r="G11">
         <v>9</v>
       </c>
-      <c r="G11">
-        <v>7</v>
-      </c>
       <c r="H11">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -765,19 +765,19 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E12">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G12">
         <v>8</v>
       </c>
       <c r="H12">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -794,16 +794,16 @@
         <v>37</v>
       </c>
       <c r="E13">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G13">
         <v>7</v>
       </c>
       <c r="H13">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -817,19 +817,19 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E14">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F14">
         <v>12</v>
       </c>
       <c r="G14">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H14">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -843,19 +843,19 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E15">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F15">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G15">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H15">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -869,19 +869,19 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E16">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H16">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -895,19 +895,19 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E17">
         <v>15</v>
       </c>
       <c r="F17">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G17">
         <v>8</v>
       </c>
       <c r="H17">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E18">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F18">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G18">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H18">
         <v>34</v>
@@ -950,16 +950,16 @@
         <v>33</v>
       </c>
       <c r="E19">
+        <v>9</v>
+      </c>
+      <c r="F19">
         <v>6</v>
       </c>
-      <c r="F19">
-        <v>4</v>
-      </c>
       <c r="G19">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H19">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -976,13 +976,13 @@
         <v>33</v>
       </c>
       <c r="E20">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F20">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H20">
         <v>53</v>
@@ -1002,16 +1002,16 @@
         <v>37</v>
       </c>
       <c r="E21">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F21">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G21">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H21">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1025,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E22">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F22">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G22">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H22">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1051,19 +1051,19 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E23">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F23">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G23">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H23">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1077,19 +1077,19 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E24">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F24">
+        <v>9</v>
+      </c>
+      <c r="G24">
         <v>10</v>
       </c>
-      <c r="G24">
-        <v>8</v>
-      </c>
       <c r="H24">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E25">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F25">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G25">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H25">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1132,16 +1132,16 @@
         <v>30</v>
       </c>
       <c r="E26">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G26">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H26">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1155,19 +1155,19 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E27">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F27">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G27">
         <v>8</v>
       </c>
       <c r="H27">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E28">
         <v>8</v>
@@ -1193,7 +1193,7 @@
         <v>12</v>
       </c>
       <c r="H28">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1207,19 +1207,19 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E29">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F29">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G29">
         <v>11</v>
       </c>
       <c r="H29">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1233,19 +1233,19 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E30">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F30">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H30">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1259,19 +1259,19 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E31">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F31">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G31">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H31">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1285,16 +1285,16 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E32">
         <v>15</v>
       </c>
       <c r="F32">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G32">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H32">
         <v>41</v>

--- a/Data/branch_wise_stock_status.xlsx
+++ b/Data/branch_wise_stock_status.xlsx
@@ -499,13 +499,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -517,7 +517,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>75</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -525,25 +525,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>49</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -551,25 +551,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="E4">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>41</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -577,25 +577,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="E5">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -603,25 +603,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="E6">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G6">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>38</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -629,25 +629,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="E7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>42</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -655,25 +655,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="E8">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H8">
-        <v>42</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -681,25 +681,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="E9">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -707,25 +707,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E10">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>61</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -733,25 +733,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="E11">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>45</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -759,25 +759,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E12">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -785,25 +785,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="E13">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H13">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -811,25 +811,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="E14">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G14">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="H14">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -837,25 +837,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="E15">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="H15">
-        <v>38</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -863,25 +863,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="E16">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>57</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -889,25 +889,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E17">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
         <v>9</v>
-      </c>
-      <c r="G17">
-        <v>8</v>
-      </c>
-      <c r="H17">
-        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -915,25 +915,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="E18">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F18">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H18">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -941,25 +941,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="E19">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>54</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -967,25 +967,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="E20">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>53</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -993,25 +993,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="E21">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1019,25 +1019,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
         <v>11</v>
-      </c>
-      <c r="F22">
-        <v>3</v>
-      </c>
-      <c r="G22">
-        <v>6</v>
-      </c>
-      <c r="H22">
-        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1045,25 +1045,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="E23">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F23">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H23">
-        <v>38</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1071,25 +1071,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="E24">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G24">
+        <v>5</v>
+      </c>
+      <c r="H24">
         <v>10</v>
-      </c>
-      <c r="H24">
-        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1097,25 +1097,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E25">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
         <v>10</v>
-      </c>
-      <c r="H25">
-        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1123,25 +1123,25 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E26">
         <v>2</v>
       </c>
       <c r="F26">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H26">
-        <v>57</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1149,25 +1149,25 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="E27">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F27">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H27">
-        <v>51</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1175,25 +1175,25 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="D28">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E28">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>52</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1201,25 +1201,25 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="E29">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H29">
-        <v>45</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1227,25 +1227,25 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
       <c r="D30">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30">
         <v>10</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>17</v>
-      </c>
-      <c r="H30">
-        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1253,25 +1253,25 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="E31">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G31">
+        <v>2</v>
+      </c>
+      <c r="H31">
         <v>8</v>
-      </c>
-      <c r="H31">
-        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1279,25 +1279,25 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="D32">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E32">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="F32">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Data/branch_wise_stock_status.xlsx
+++ b/Data/branch_wise_stock_status.xlsx
@@ -554,22 +554,22 @@
         <v>27</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>14</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -644,10 +644,10 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -719,10 +719,10 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>11</v>
@@ -748,10 +748,10 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -820,16 +820,16 @@
         <v>13</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H14">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -843,19 +843,19 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H15">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -924,7 +924,7 @@
         <v>12</v>
       </c>
       <c r="E18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -933,7 +933,7 @@
         <v>1</v>
       </c>
       <c r="H18">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -973,19 +973,19 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1025,16 +1025,16 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22">
         <v>11</v>
@@ -1051,19 +1051,19 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H23">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1103,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1135,10 +1135,10 @@
         <v>2</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26">
         <v>8</v>
@@ -1236,13 +1236,13 @@
         <v>13</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H30">
         <v>10</v>
@@ -1268,10 +1268,10 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:8">

--- a/Data/branch_wise_stock_status.xlsx
+++ b/Data/branch_wise_stock_status.xlsx
@@ -499,25 +499,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>15</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -525,25 +525,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H3">
-        <v>14</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -551,25 +551,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H4">
-        <v>10</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -577,25 +577,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H5">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -603,25 +603,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="E6">
+        <v>6</v>
+      </c>
+      <c r="F6">
         <v>3</v>
       </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
       <c r="G6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H6">
-        <v>9</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -629,25 +629,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -655,25 +655,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H8">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -681,25 +681,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H9">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -707,25 +707,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H10">
-        <v>11</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -733,25 +733,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H11">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -759,25 +759,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H12">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -785,25 +785,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H13">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -811,25 +811,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G14">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H14">
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -837,25 +837,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G15">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H15">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -863,25 +863,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H16">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -889,25 +889,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H17">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -915,25 +915,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E18">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H18">
-        <v>10</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -941,25 +941,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H19">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -967,25 +967,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H20">
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -993,25 +993,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H21">
-        <v>13</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1019,25 +1019,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H22">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1045,25 +1045,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="E23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H23">
-        <v>10</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1071,25 +1071,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
+        <v>34</v>
+      </c>
+      <c r="E24">
         <v>12</v>
       </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
       <c r="F24">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G24">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H24">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1097,25 +1097,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H25">
-        <v>10</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1123,25 +1123,25 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
         <v>2</v>
       </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
       <c r="H26">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1149,25 +1149,25 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H27">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1175,25 +1175,25 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="D28">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H28">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1201,25 +1201,25 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G29">
         <v>2</v>
       </c>
       <c r="H29">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1227,25 +1227,25 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
       <c r="D30">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G30">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H30">
-        <v>10</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1253,25 +1253,25 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G31">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H31">
-        <v>8</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1279,25 +1279,25 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="D32">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H32">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Data/branch_wise_stock_status.xlsx
+++ b/Data/branch_wise_stock_status.xlsx
@@ -499,25 +499,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -525,7 +525,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -537,13 +537,13 @@
         <v>10</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H3">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -551,25 +551,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E4">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G4">
         <v>3</v>
       </c>
       <c r="H4">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -577,25 +577,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E5">
         <v>7</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H5">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -603,7 +603,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -612,16 +612,16 @@
         <v>29</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F6">
         <v>3</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H6">
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -629,25 +629,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E7">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H7">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -655,25 +655,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E8">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G8">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H8">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -681,25 +681,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E9">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
         <v>5</v>
       </c>
-      <c r="G9">
-        <v>9</v>
-      </c>
       <c r="H9">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -707,25 +707,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H10">
-        <v>49</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -733,25 +733,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E11">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H11">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -759,25 +759,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E12">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F12">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H12">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -785,25 +785,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E13">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F13">
         <v>4</v>
       </c>
       <c r="G13">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H13">
-        <v>44</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -811,25 +811,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E14">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F14">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G14">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H14">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -837,25 +837,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E15">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G15">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H15">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -863,7 +863,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -875,13 +875,13 @@
         <v>8</v>
       </c>
       <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="G16">
         <v>3</v>
       </c>
-      <c r="G16">
-        <v>5</v>
-      </c>
       <c r="H16">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -889,25 +889,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E17">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G17">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H17">
-        <v>47</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -915,7 +915,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -924,16 +924,16 @@
         <v>30</v>
       </c>
       <c r="E18">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G18">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H18">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -941,22 +941,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E19">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F19">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G19">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H19">
         <v>23</v>
@@ -967,25 +967,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E20">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
         <v>4</v>
       </c>
-      <c r="G20">
-        <v>5</v>
-      </c>
       <c r="H20">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -993,25 +993,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E21">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F21">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G21">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H21">
-        <v>47</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1019,25 +1019,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E22">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H22">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1045,25 +1045,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G23">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H23">
-        <v>52</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1071,25 +1071,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E24">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F24">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G24">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H24">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1097,25 +1097,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E25">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G25">
         <v>5</v>
       </c>
       <c r="H25">
-        <v>49</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1123,25 +1123,25 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26">
+        <v>31</v>
+      </c>
+      <c r="E26">
+        <v>7</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <v>7</v>
+      </c>
+      <c r="H26">
         <v>29</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>2</v>
-      </c>
-      <c r="H26">
-        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1149,25 +1149,25 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E27">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F27">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G27">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H27">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1175,25 +1175,25 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="D28">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E28">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F28">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G28">
         <v>6</v>
       </c>
       <c r="H28">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1201,25 +1201,25 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E29">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F29">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G29">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H29">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1227,7 +1227,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1236,16 +1236,16 @@
         <v>30</v>
       </c>
       <c r="E30">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F30">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G30">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H30">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1253,25 +1253,25 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E31">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F31">
         <v>5</v>
       </c>
       <c r="G31">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H31">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1279,25 +1279,25 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="D32">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E32">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32">
         <v>8</v>
       </c>
-      <c r="G32">
-        <v>7</v>
-      </c>
       <c r="H32">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Data/branch_wise_stock_status.xlsx
+++ b/Data/branch_wise_stock_status.xlsx
@@ -531,16 +531,16 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H3">
         <v>26</v>
@@ -557,19 +557,19 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E4">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F4">
         <v>4</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H4">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -586,16 +586,16 @@
         <v>34</v>
       </c>
       <c r="E5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G5">
         <v>7</v>
       </c>
       <c r="H5">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -612,13 +612,13 @@
         <v>29</v>
       </c>
       <c r="E6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6">
         <v>3</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H6">
         <v>24</v>
@@ -635,7 +635,7 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E7">
         <v>11</v>
@@ -644,10 +644,10 @@
         <v>3</v>
       </c>
       <c r="G7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H7">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -667,13 +667,13 @@
         <v>13</v>
       </c>
       <c r="F8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H8">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -687,19 +687,19 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E9">
         <v>12</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H9">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -713,19 +713,19 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E10">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H10">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E11">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -765,19 +765,19 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E12">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H12">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -791,19 +791,19 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="E13">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -820,7 +820,7 @@
         <v>35</v>
       </c>
       <c r="E14">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14">
         <v>6</v>
@@ -829,7 +829,7 @@
         <v>6</v>
       </c>
       <c r="H14">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -843,19 +843,19 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E15">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -878,10 +878,10 @@
         <v>4</v>
       </c>
       <c r="G16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H16">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -895,16 +895,16 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E17">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F17">
         <v>5</v>
       </c>
       <c r="G17">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H17">
         <v>29</v>
@@ -921,19 +921,19 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E18">
         <v>10</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G18">
         <v>10</v>
       </c>
       <c r="H18">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -947,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="E19">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -976,16 +976,16 @@
         <v>36</v>
       </c>
       <c r="E20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H20">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -999,19 +999,19 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E21">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F21">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G21">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H21">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1025,16 +1025,16 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E22">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G22">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H22">
         <v>21</v>
@@ -1051,16 +1051,16 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E23">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G23">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H23">
         <v>24</v>
@@ -1077,19 +1077,19 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E24">
         <v>19</v>
       </c>
       <c r="F24">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H24">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1106,13 +1106,13 @@
         <v>34</v>
       </c>
       <c r="E25">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F25">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H25">
         <v>20</v>
@@ -1129,10 +1129,10 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E26">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F26">
         <v>2</v>
@@ -1158,13 +1158,13 @@
         <v>27</v>
       </c>
       <c r="E27">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F27">
         <v>3</v>
       </c>
       <c r="G27">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H27">
         <v>32</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E28">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F28">
         <v>2</v>
@@ -1207,19 +1207,19 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E29">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G29">
         <v>8</v>
       </c>
       <c r="H29">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1233,16 +1233,16 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E30">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F30">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G30">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H30">
         <v>22</v>
@@ -1259,19 +1259,19 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E31">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F31">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G31">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H31">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1288,7 +1288,7 @@
         <v>31</v>
       </c>
       <c r="E32">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F32">
         <v>2</v>
@@ -1297,7 +1297,7 @@
         <v>8</v>
       </c>
       <c r="H32">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Data/branch_wise_stock_status.xlsx
+++ b/Data/branch_wise_stock_status.xlsx
@@ -16,6 +16,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
+    <t>AvgSaleVRB</t>
+  </si>
+  <si>
+    <t>TDCL Central WH</t>
+  </si>
+  <si>
     <t>Branch Total</t>
   </si>
   <si>
@@ -49,7 +55,7 @@
     <t>GZP</t>
   </si>
   <si>
-    <t>HZJ</t>
+    <t>CND</t>
   </si>
   <si>
     <t>JES</t>
@@ -101,12 +107,6 @@
   </si>
   <si>
     <t>SAV</t>
-  </si>
-  <si>
-    <t>SYL</t>
-  </si>
-  <si>
-    <t>TGL</t>
   </si>
   <si>
     <t>Branch</t>
@@ -505,19 +505,19 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>52</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -531,19 +531,19 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="E3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H3">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -557,19 +557,19 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>19</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -583,19 +583,19 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E5">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G5">
         <v>7</v>
       </c>
       <c r="H5">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -609,19 +609,19 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="E6">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G6">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H6">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -635,7 +635,7 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E7">
         <v>11</v>
@@ -644,10 +644,10 @@
         <v>3</v>
       </c>
       <c r="G7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H7">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -661,19 +661,19 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E8">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F8">
         <v>6</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H8">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -690,16 +690,16 @@
         <v>32</v>
       </c>
       <c r="E9">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G9">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H9">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -713,19 +713,19 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H10">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -739,19 +739,19 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E11">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H11">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -765,19 +765,19 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E12">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F12">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H12">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -791,19 +791,19 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -817,16 +817,16 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E14">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F14">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H14">
         <v>18</v>
@@ -843,19 +843,19 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
         <v>7</v>
       </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
       <c r="H15">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -869,19 +869,19 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E16">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F16">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H16">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -895,19 +895,19 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E17">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G17">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H17">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -921,19 +921,19 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E18">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G18">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H18">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -947,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -973,19 +973,19 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E20">
+        <v>11</v>
+      </c>
+      <c r="F20">
         <v>6</v>
       </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
       <c r="G20">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H20">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -999,19 +999,19 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E21">
         <v>12</v>
       </c>
       <c r="F21">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H21">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1025,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E22">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G22">
         <v>7</v>
       </c>
       <c r="H22">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1054,16 +1054,16 @@
         <v>31</v>
       </c>
       <c r="E23">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G23">
         <v>6</v>
       </c>
       <c r="H23">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1077,19 +1077,19 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E24">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="F24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G24">
         <v>5</v>
       </c>
       <c r="H24">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E25">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F25">
+        <v>5</v>
+      </c>
+      <c r="G25">
         <v>7</v>
       </c>
-      <c r="G25">
-        <v>4</v>
-      </c>
       <c r="H25">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E26">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="F26">
         <v>2</v>
       </c>
       <c r="G26">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H26">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1155,19 +1155,19 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E27">
+        <v>16</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27">
         <v>8</v>
       </c>
-      <c r="F27">
-        <v>3</v>
-      </c>
-      <c r="G27">
-        <v>6</v>
-      </c>
       <c r="H27">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1184,16 +1184,16 @@
         <v>29</v>
       </c>
       <c r="E28">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G28">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H28">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1207,19 +1207,19 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E29">
+        <v>10</v>
+      </c>
+      <c r="F29">
         <v>4</v>
       </c>
-      <c r="F29">
-        <v>3</v>
-      </c>
       <c r="G29">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H29">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1233,19 +1233,19 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E30">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F30">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G30">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H30">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1259,19 +1259,19 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E31">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F31">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G31">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H31">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1285,7 +1285,7 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E32">
         <v>13</v>
@@ -1294,10 +1294,10 @@
         <v>2</v>
       </c>
       <c r="G32">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H32">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Data/branch_wise_stock_status.xlsx
+++ b/Data/branch_wise_stock_status.xlsx
@@ -499,25 +499,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -525,13 +525,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -551,13 +551,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -569,7 +569,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>52</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -577,25 +577,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H5">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -603,25 +603,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H6">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -629,25 +629,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>5</v>
       </c>
       <c r="H7">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -655,25 +655,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F8">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G8">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H8">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -681,25 +681,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>9</v>
       </c>
       <c r="F9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H9">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -707,25 +707,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F10">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H10">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -733,22 +733,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>24</v>
@@ -759,25 +759,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H12">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -785,25 +785,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E13">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H13">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -811,25 +811,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G14">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H14">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -837,22 +837,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>2</v>
       </c>
       <c r="G15">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H15">
         <v>23</v>
@@ -863,25 +863,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F16">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G16">
         <v>5</v>
       </c>
       <c r="H16">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -889,25 +889,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H17">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -915,25 +915,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E18">
         <v>7</v>
       </c>
       <c r="F18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H18">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -941,25 +941,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F19">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G19">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H19">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -967,25 +967,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E20">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20">
         <v>6</v>
       </c>
-      <c r="G20">
-        <v>10</v>
-      </c>
       <c r="H20">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -993,25 +993,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="E21">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H21">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1019,13 +1019,13 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E22">
         <v>5</v>
@@ -1034,10 +1034,10 @@
         <v>3</v>
       </c>
       <c r="G22">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H22">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1045,25 +1045,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E23">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G23">
         <v>6</v>
       </c>
       <c r="H23">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1071,25 +1071,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E24">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G24">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H24">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1097,25 +1097,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="E25">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G25">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H25">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1123,25 +1123,25 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E26">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G26">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H26">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1149,22 +1149,22 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E27">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>2</v>
       </c>
       <c r="G27">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H27">
         <v>19</v>
@@ -1175,25 +1175,25 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C28">
         <v>0</v>
       </c>
       <c r="D28">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
         <v>29</v>
-      </c>
-      <c r="E28">
-        <v>8</v>
-      </c>
-      <c r="F28">
-        <v>4</v>
-      </c>
-      <c r="G28">
-        <v>4</v>
-      </c>
-      <c r="H28">
-        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1201,25 +1201,25 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E29">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>4</v>
       </c>
       <c r="G29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H29">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1227,25 +1227,25 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
       <c r="D30">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E30">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G30">
         <v>3</v>
       </c>
       <c r="H30">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1253,25 +1253,25 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G31">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H31">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1279,25 +1279,25 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="D32">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E32">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F32">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G32">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H32">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
